--- a/00-Timeline/Copy of N95 Project Management will-edits.xlsx
+++ b/00-Timeline/Copy of N95 Project Management will-edits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Documents/GitHub/Reusable-N95-Project/00-Timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3CF9CC-705A-604B-9A62-747A2E3B8439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1C1DEB-24A8-0F41-9344-48E5B612FDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" xr2:uid="{EDB51424-9EFD-468B-9C73-09D1C6287887}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>Need GLIA's help with MDEL or APIL's MDEL [Carla/Azad/Carrie Wakem]</t>
   </si>
@@ -299,13 +299,49 @@
   </si>
   <si>
     <t>Will/GLIA</t>
+  </si>
+  <si>
+    <t>NIH one-piece &amp; Manitoba</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>Carla/Azad/GLIA</t>
+  </si>
+  <si>
+    <t>Andrew/Azad/GLIA</t>
+  </si>
+  <si>
+    <t>Stopped Pursuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture First 50 units </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test first 50 Units </t>
+  </si>
+  <si>
+    <t>Report back to SickKids and UHN COVID-PPE Leads</t>
+  </si>
+  <si>
+    <t>Andrew/Vahid/Will</t>
+  </si>
+  <si>
+    <t>Proof of Concept - done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,8 +391,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +433,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -584,7 +651,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,11 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658B31C5-14CA-B042-AEF7-7988CFEB31AC}">
-  <dimension ref="B1:I42"/>
+  <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -913,7 +998,7 @@
     <col min="1" max="1" width="9.1640625" style="1"/>
     <col min="2" max="2" width="74.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="3" customWidth="1"/>
     <col min="5" max="8" width="21" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
@@ -998,8 +1083,12 @@
       <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>79</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1012,7 +1101,9 @@
       <c r="C7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -1025,7 +1116,9 @@
       <c r="C8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1038,7 +1131,9 @@
       <c r="C9" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1051,7 +1146,9 @@
       <c r="C10" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1064,7 +1161,9 @@
       <c r="C11" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1077,7 +1176,9 @@
       <c r="C12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1090,7 +1191,7 @@
       <c r="C13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="35" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="10"/>
@@ -1099,24 +1200,24 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1124,12 +1225,14 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="22" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>61</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1137,12 +1240,14 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>70</v>
+      </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1150,33 +1255,37 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="34" t="s">
+        <v>61</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="22"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>28</v>
-      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1185,10 +1294,14 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1196,12 +1309,14 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="22" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1209,12 +1324,14 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1222,21 +1339,29 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1252,12 +1377,8 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>18</v>
-      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -1266,10 +1387,10 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
@@ -1278,8 +1399,12 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="22"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -1287,12 +1412,8 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -1301,10 +1422,10 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
@@ -1314,10 +1435,10 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -1327,10 +1448,10 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
@@ -1339,8 +1460,12 @@
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -1348,12 +1473,8 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>39</v>
-      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -1362,10 +1483,10 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
@@ -1375,10 +1496,10 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
@@ -1388,20 +1509,24 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="16"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="22"/>
-      <c r="C39" s="27"/>
+      <c r="B39" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -1409,12 +1534,8 @@
       <c r="H39" s="16"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -1423,10 +1544,10 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
@@ -1434,18 +1555,31 @@
       <c r="G41" s="10"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="23" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C43" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="15"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00-Timeline/Copy of N95 Project Management will-edits.xlsx
+++ b/00-Timeline/Copy of N95 Project Management will-edits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wckng/Documents/GitHub/Reusable-N95-Project/00-Timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1C1DEB-24A8-0F41-9344-48E5B612FDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCB404B-AD76-D140-A60F-037CE26C7AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" xr2:uid="{EDB51424-9EFD-468B-9C73-09D1C6287887}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
   <si>
     <t>Need GLIA's help with MDEL or APIL's MDEL [Carla/Azad/Carrie Wakem]</t>
   </si>
@@ -268,9 +268,6 @@
     <t>Thomas/Brandon</t>
   </si>
   <si>
-    <t>Will/Josh</t>
-  </si>
-  <si>
     <t>Build Simple Silicone Mask Mould and Cast 13 Apri 2020</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>Develop Adapter with smaller connection to ROXON for NIH and Montana</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t>Progress</t>
   </si>
   <si>
@@ -307,9 +301,6 @@
     <t>Not started</t>
   </si>
   <si>
-    <t>progress</t>
-  </si>
-  <si>
     <t>TBC</t>
   </si>
   <si>
@@ -334,7 +325,31 @@
     <t>Andrew/Vahid/Will</t>
   </si>
   <si>
-    <t>Proof of Concept - done</t>
+    <t>Carla/Will</t>
+  </si>
+  <si>
+    <t>Funding Proposal to UHN (dependent on report findings)</t>
+  </si>
+  <si>
+    <t>Carla/Binu/Will</t>
+  </si>
+  <si>
+    <t>Josh/Vahid</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Brandon/Thomas</t>
+  </si>
+  <si>
+    <t>Josh/Vahid/William</t>
+  </si>
+  <si>
+    <t>NIH S, M Moulds -&gt; One-Piece 13 April 2020 onwards</t>
+  </si>
+  <si>
+    <t>NIOSH Testing -&gt; Proof of Concept 13 April 2020</t>
   </si>
 </sst>
 </file>
@@ -399,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,18 +447,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,28 +657,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658B31C5-14CA-B042-AEF7-7988CFEB31AC}">
-  <dimension ref="B1:I43"/>
+  <dimension ref="B1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1046,13 +1055,14 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="17"/>
@@ -1061,8 +1071,12 @@
       <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>80</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -1072,8 +1086,12 @@
       <c r="B5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>80</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1081,13 +1099,13 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1101,70 +1119,68 @@
       <c r="C7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="D11" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
@@ -1174,12 +1190,14 @@
         <v>53</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
@@ -1189,50 +1207,56 @@
         <v>24</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="10"/>
+      <c r="D14" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="22"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>61</v>
-      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1240,13 +1264,13 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>70</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1255,28 +1279,30 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="22" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>69</v>
+      <c r="D19" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1284,24 +1310,26 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1309,13 +1337,13 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="22" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -1324,13 +1352,13 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -1339,13 +1367,13 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -1353,14 +1381,14 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>74</v>
+      <c r="B25" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -1368,9 +1396,15 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1386,12 +1420,8 @@
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>18</v>
-      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -1400,10 +1430,10 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
@@ -1412,8 +1442,12 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="22"/>
-      <c r="C30" s="27"/>
+      <c r="B30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -1421,12 +1455,8 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -1435,10 +1465,10 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -1448,10 +1478,10 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
@@ -1461,10 +1491,10 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -1473,8 +1503,12 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="22"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -1482,12 +1516,8 @@
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>39</v>
-      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -1496,10 +1526,10 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
@@ -1509,10 +1539,10 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
@@ -1522,20 +1552,24 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="16"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="22"/>
-      <c r="C40" s="27"/>
+      <c r="B40" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -1543,12 +1577,8 @@
       <c r="H40" s="16"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -1557,10 +1587,10 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
@@ -1568,18 +1598,31 @@
       <c r="G42" s="10"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C44" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="15"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
